--- a/data/Spring2017/15-gene_networks_analysis/MSE_minMSE_analysis/minMSE_calculated_dcin5_17gene.xlsx
+++ b/data/Spring2017/15-gene_networks_analysis/MSE_minMSE_analysis/minMSE_calculated_dcin5_17gene.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwilli31\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="25360" windowHeight="13720" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="10905" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="wt_log2_expression" sheetId="1" r:id="rId1"/>
@@ -14,8 +19,10 @@
     <sheet name="hmo1_log2_expression" sheetId="5" r:id="rId5"/>
     <sheet name="zap1_log3_expression" sheetId="6" r:id="rId6"/>
     <sheet name="calculated_minMSE" sheetId="7" r:id="rId7"/>
+    <sheet name="MSE_GRNmap" sheetId="8" r:id="rId8"/>
+    <sheet name="MSE_minMSE" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +122,45 @@
   </si>
   <si>
     <t>dzap1_minMSE</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
+  </si>
+  <si>
+    <t>dgln3 MSE</t>
+  </si>
+  <si>
+    <t>dhap4 MSE</t>
+  </si>
+  <si>
+    <t>dhmo1 MSE</t>
+  </si>
+  <si>
+    <t>dzap1 MSE</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>dcin5</t>
+  </si>
+  <si>
+    <t>dgln3</t>
+  </si>
+  <si>
+    <t>dhap4</t>
+  </si>
+  <si>
+    <t>dhmo1</t>
+  </si>
+  <si>
+    <t>dzap1</t>
   </si>
 </sst>
 </file>
@@ -322,6 +368,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -653,20 +707,20 @@
       <selection activeCell="B61" sqref="B61:B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1"/>
-    <col min="16" max="18" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="7" max="14" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" style="1"/>
+    <col min="16" max="18" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -775,7 +829,7 @@
         <v>-7.7950000000000019E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -831,7 +885,7 @@
         <v>1.7428750000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -887,7 +941,7 @@
         <v>-0.55452499999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -943,7 +997,7 @@
         <v>0.54772500000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1053,7 @@
         <v>-0.71662500000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1109,7 @@
         <v>1.6189750000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1111,7 +1165,7 @@
         <v>0.10434999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1221,7 @@
         <v>1.0186499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1223,7 +1277,7 @@
         <v>0.70422499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1333,7 @@
         <v>0.25234999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1335,7 +1389,7 @@
         <v>0.53382499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1391,7 +1445,7 @@
         <v>-1.0259500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1501,7 @@
         <v>-0.34279999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1503,7 +1557,7 @@
         <v>0.16275000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1613,7 @@
         <v>0.19022500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1615,7 +1669,7 @@
         <v>-0.42277499999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1671,12 +1725,12 @@
         <v>2.4699499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="9" customFormat="1">
+    <row r="21" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1777,7 +1831,7 @@
         <v>-1.1717500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1834,7 +1888,7 @@
         <v>-0.26437500000000025</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1891,7 +1945,7 @@
         <v>0.19602499999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1948,7 +2002,7 @@
         <v>-0.35242499999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2005,7 +2059,7 @@
         <v>-1.129675</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2062,7 +2116,7 @@
         <v>0.59822500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2119,7 +2173,7 @@
         <v>0.12895000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2230,7 @@
         <v>4.8350000000000115E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2287,7 @@
         <v>-0.83132499999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -2290,7 +2344,7 @@
         <v>0.33715000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -2347,7 +2401,7 @@
         <v>-1.5705249999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2458,7 @@
         <v>0.75115000000000021</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -2461,7 +2515,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -2518,7 +2572,7 @@
         <v>-6.5750000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -2575,7 +2629,7 @@
         <v>-0.91522499999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -2632,7 +2686,7 @@
         <v>-8.8925000000000087E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -2689,12 +2743,12 @@
         <v>-0.49394999999999989</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="9" customFormat="1">
+    <row r="41" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +2792,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -2795,7 +2849,7 @@
         <v>1.3729980625000002</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -2852,7 +2906,7 @@
         <v>6.9894140625000128E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2909,7 +2963,7 @@
         <v>3.8425800624999978E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -2966,7 +3020,7 @@
         <v>0.124203380625</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -3023,7 +3077,7 @@
         <v>1.2761656056249999</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -3080,7 +3134,7 @@
         <v>0.35787315062500002</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3191,7 @@
         <v>1.6628102500000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -3194,7 +3248,7 @@
         <v>2.337722500000011E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3305,7 @@
         <v>0.69110125562500002</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -3308,7 +3362,7 @@
         <v>0.11367012250000004</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -3365,7 +3419,7 @@
         <v>2.4665487756249997</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -3422,7 +3476,7 @@
         <v>0.56422632250000027</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -3479,7 +3533,7 @@
         <v>0.389376</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -3536,7 +3590,7 @@
         <v>4.3230625000000005E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -3593,7 +3647,7 @@
         <v>0.8376368006249999</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -3650,7 +3704,7 @@
         <v>7.9076556250000148E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -3707,7 +3761,7 @@
         <v>0.2439866024999999</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>0</v>
       </c>
@@ -3715,7 +3769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -3724,7 +3778,7 @@
         <v>0.40832632138461544</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -3733,7 +3787,7 @@
         <v>0.56862392023076924</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -3742,7 +3796,7 @@
         <v>0.27618732288461545</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -3751,7 +3805,7 @@
         <v>0.40563899349999988</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -3760,7 +3814,7 @@
         <v>1.7995752559230771</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -3769,7 +3823,7 @@
         <v>0.58711931346153856</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -3778,7 +3832,7 @@
         <v>1.0368351261538462</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -3787,7 +3841,7 @@
         <v>0.26266300996153846</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -3796,7 +3850,7 @@
         <v>0.42440576792307694</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -3805,7 +3859,7 @@
         <v>0.2051365084230769</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -3814,7 +3868,7 @@
         <v>0.98213383130769227</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -3823,7 +3877,7 @@
         <v>1.1296412793846153</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -3832,7 +3886,7 @@
         <v>0.24087990211538463</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -3841,7 +3895,7 @@
         <v>0.34962648600000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
@@ -3850,7 +3904,7 @@
         <v>0.64451981807692305</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -3859,7 +3913,7 @@
         <v>0.35545548996153836</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
@@ -3887,16 +3941,16 @@
       <selection activeCell="O1" sqref="O1:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
-    <col min="15" max="17" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="17" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3946,7 +4000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3999,7 +4053,7 @@
         <v>5.9500000000000108E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4052,7 +4106,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -4105,7 +4159,7 @@
         <v>-0.58245000000000013</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -4158,7 +4212,7 @@
         <v>0.70674999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4211,7 +4265,7 @@
         <v>-1.1413000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -4264,7 +4318,7 @@
         <v>1.693025</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -4317,7 +4371,7 @@
         <v>0.73817500000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -4370,7 +4424,7 @@
         <v>0.32780000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -4423,7 +4477,7 @@
         <v>8.8325000000000015E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4476,7 +4530,7 @@
         <v>0.41745000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -4529,7 +4583,7 @@
         <v>0.63824999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4582,7 +4636,7 @@
         <v>0.89397499999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4635,7 +4689,7 @@
         <v>0.22952499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -4688,7 +4742,7 @@
         <v>0.18889999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -4741,7 +4795,7 @@
         <v>0.15385000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -4794,7 +4848,7 @@
         <v>2.4274999999999936E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -4847,12 +4901,12 @@
         <v>0.28662499999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -4946,7 +5000,7 @@
         <v>-0.39474999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -4999,7 +5053,7 @@
         <v>0.39890000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -5052,7 +5106,7 @@
         <v>0.75135000000000018</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -5105,7 +5159,7 @@
         <v>-0.16215000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -5158,7 +5212,7 @@
         <v>-7.0399999999999796E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5265,7 @@
         <v>-0.22652500000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -5264,7 +5318,7 @@
         <v>0.58522499999999988</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -5317,7 +5371,7 @@
         <v>-0.5334000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -5370,7 +5424,7 @@
         <v>-2.8025000000000015E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -5423,7 +5477,7 @@
         <v>-0.45845000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -5476,7 +5530,7 @@
         <v>-0.32555000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -5529,7 +5583,7 @@
         <v>0.23792499999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -5582,7 +5636,7 @@
         <v>1.6750000000000098E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -5635,7 +5689,7 @@
         <v>2.0100000000000007E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -5688,7 +5742,7 @@
         <v>0.40404999999999991</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -5741,7 +5795,7 @@
         <v>0.27422500000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -5794,12 +5848,12 @@
         <v>-0.33072499999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
@@ -5840,7 +5894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -5893,7 +5947,7 @@
         <v>0.15582756249999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -5946,7 +6000,7 @@
         <v>0.15912121000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -5999,7 +6053,7 @@
         <v>0.5645268225000003</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -6052,7 +6106,7 @@
         <v>2.6292622500000005E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -6105,7 +6159,7 @@
         <v>4.9561599999999716E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -6158,7 +6212,7 @@
         <v>5.1313575625000038E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -6211,7 +6265,7 @@
         <v>0.34248830062499985</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -6264,7 +6318,7 @@
         <v>0.28451556000000011</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -6317,7 +6371,7 @@
         <v>7.8540062500000087E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -6370,7 +6424,7 @@
         <v>0.21017640250000003</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -6423,7 +6477,7 @@
         <v>0.1059828025</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -6476,7 +6530,7 @@
         <v>5.6608305624999973E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -6529,7 +6583,7 @@
         <v>2.805625000000033E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -6582,7 +6636,7 @@
         <v>4.0401000000000027E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -6635,7 +6689,7 @@
         <v>0.16325640249999993</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -6688,7 +6742,7 @@
         <v>7.5199350625000022E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -6741,7 +6795,7 @@
         <v>0.10937902562499996</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>0</v>
       </c>
@@ -6749,7 +6803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -6758,7 +6812,7 @@
         <v>8.4211367291666686E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -6767,7 +6821,7 @@
         <v>8.4956748958333342E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -6776,7 +6830,7 @@
         <v>0.48977017229166658</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -6785,7 +6839,7 @@
         <v>0.16551597145833336</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -6794,7 +6848,7 @@
         <v>1.0946349047916668</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -6803,7 +6857,7 @@
         <v>0.549004856875</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -6812,7 +6866,7 @@
         <v>0.64566702479166682</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -6821,7 +6875,7 @@
         <v>0.11369124895833334</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -6830,7 +6884,7 @@
         <v>0.226474623125</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -6839,7 +6893,7 @@
         <v>0.28186420041666665</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -6848,7 +6902,7 @@
         <v>0.24304364145833332</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -6857,7 +6911,7 @@
         <v>0.5775383262499999</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -6866,7 +6920,7 @@
         <v>0.45946843541666665</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -6875,7 +6929,7 @@
         <v>0.21189209895833339</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
@@ -6884,7 +6938,7 @@
         <v>0.56829758312499989</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -6893,7 +6947,7 @@
         <v>0.64421283479166658</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
@@ -6921,16 +6975,16 @@
       <selection activeCell="A20" sqref="A20:M77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="13" width="11.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
-    <col min="15" max="17" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="13" width="11.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="17" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6980,7 +7034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7033,7 +7087,7 @@
         <v>0.34322500000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -7086,7 +7140,7 @@
         <v>1.6843250000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -7139,7 +7193,7 @@
         <v>0.37777500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -7192,7 +7246,7 @@
         <v>7.5824999999999976E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -7245,7 +7299,7 @@
         <v>0.33294999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -7298,7 +7352,7 @@
         <v>1.3929</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -7351,7 +7405,7 @@
         <v>0.46329999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -7404,7 +7458,7 @@
         <v>0.37974999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -7457,7 +7511,7 @@
         <v>0.70177500000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -7510,7 +7564,7 @@
         <v>1.3078999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -7563,7 +7617,7 @@
         <v>0.99592499999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -7616,7 +7670,7 @@
         <v>0.444075</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7669,7 +7723,7 @@
         <v>-0.2727</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -7722,7 +7776,7 @@
         <v>-0.10259999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -7775,7 +7829,7 @@
         <v>0.52647500000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -7828,7 +7882,7 @@
         <v>0.91972500000000013</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -7881,12 +7935,12 @@
         <v>-1.0799750000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -7927,7 +7981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -7980,7 +8034,7 @@
         <v>-0.53652500000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -8033,7 +8087,7 @@
         <v>0.89447500000000013</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -8086,7 +8140,7 @@
         <v>0.38952499999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -8139,7 +8193,7 @@
         <v>-0.23682499999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -8192,7 +8246,7 @@
         <v>-0.10734999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -8245,7 +8299,7 @@
         <v>0.32050000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -8298,7 +8352,7 @@
         <v>-1.8837999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -8351,7 +8405,7 @@
         <v>0.42314999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -8404,7 +8458,7 @@
         <v>-0.98877499999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -8457,7 +8511,7 @@
         <v>-0.32269999999999988</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -8510,7 +8564,7 @@
         <v>0.22617500000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -8563,7 +8617,7 @@
         <v>-0.17697499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -8616,7 +8670,7 @@
         <v>3.0000000000002247E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -8669,7 +8723,7 @@
         <v>0.31879999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -8722,7 +8776,7 @@
         <v>0.51262499999999989</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -8775,7 +8829,7 @@
         <v>0.37817499999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -8828,12 +8882,12 @@
         <v>-2.4999999999941735E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
@@ -8874,7 +8928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -8927,7 +8981,7 @@
         <v>0.28785907562500002</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -8980,7 +9034,7 @@
         <v>0.80008552562500024</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -9033,7 +9087,7 @@
         <v>0.15172972562499998</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -9086,7 +9140,7 @@
         <v>5.6086080624999993E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -9139,7 +9193,7 @@
         <v>1.1524022499999995E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -9192,7 +9246,7 @@
         <v>0.10272025</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9299,7 @@
         <v>3.5487024399999996</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -9298,7 +9352,7 @@
         <v>0.17905592249999996</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -9351,7 +9405,7 @@
         <v>0.97767600062499993</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -9404,7 +9458,7 @@
         <v>0.10413528999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -9457,7 +9511,7 @@
         <v>5.115513062500001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -9510,7 +9564,7 @@
         <v>3.1320150625000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -9563,7 +9617,7 @@
         <v>9.0000000000013485E-8</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -9616,7 +9670,7 @@
         <v>0.10163343999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -9669,7 +9723,7 @@
         <v>0.26278439062499986</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -9722,7 +9776,7 @@
         <v>0.14301633062499994</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -9775,7 +9829,7 @@
         <v>6.2499999999708679E-10</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>0</v>
       </c>
@@ -9783,7 +9837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -9792,7 +9846,7 @@
         <v>0.89750895291666666</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -9801,7 +9855,7 @@
         <v>0.73399234958333326</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -9810,7 +9864,7 @@
         <v>0.7480565579166667</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -9819,7 +9873,7 @@
         <v>0.30605142541666669</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -9828,7 +9882,7 @@
         <v>0.65495765875</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -9837,7 +9891,7 @@
         <v>0.29534167479166668</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -9846,7 +9900,7 @@
         <v>2.7167635722916663</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -9855,7 +9909,7 @@
         <v>0.11779423979166663</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -9864,7 +9918,7 @@
         <v>0.6275051620833334</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -9873,7 +9927,7 @@
         <v>0.86103989145833359</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -9882,7 +9936,7 @@
         <v>0.75746717562499999</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -9891,7 +9945,7 @@
         <v>0.12324917687500002</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -9900,7 +9954,7 @@
         <v>0.38157429229166673</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -9909,7 +9963,7 @@
         <v>0.26724530895833337</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
@@ -9918,7 +9972,7 @@
         <v>0.32861329854166671</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -9927,7 +9981,7 @@
         <v>8.8591971875000008E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
@@ -9955,9 +10009,9 @@
       <selection activeCell="O1" sqref="O1:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10007,7 +10061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10060,7 +10114,7 @@
         <v>-0.33029999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -10113,7 +10167,7 @@
         <v>2.5744499999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -10166,7 +10220,7 @@
         <v>0.53347499999999992</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10219,7 +10273,7 @@
         <v>0.56015000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -10272,7 +10326,7 @@
         <v>-0.41249999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -10325,7 +10379,7 @@
         <v>0.77357500000000012</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10378,7 +10432,7 @@
         <v>1.4478750000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -10431,7 +10485,7 @@
         <v>0.3538</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -10484,7 +10538,7 @@
         <v>0.71224999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -10537,7 +10591,7 @@
         <v>0.20222499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -10590,7 +10644,7 @@
         <v>0.31519999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -10643,7 +10697,7 @@
         <v>0.15397500000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -10696,7 +10750,7 @@
         <v>0.34352500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -10749,7 +10803,7 @@
         <v>-0.24384999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -10802,7 +10856,7 @@
         <v>0.96395000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -10855,7 +10909,7 @@
         <v>-0.75737499999999991</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -10908,7 +10962,7 @@
         <v>-0.38417499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -10925,7 +10979,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -10966,7 +11020,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -11019,7 +11073,7 @@
         <v>0.52879999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -11072,7 +11126,7 @@
         <v>-0.65574999999999961</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -11125,7 +11179,7 @@
         <v>0.42432500000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -11178,7 +11232,7 @@
         <v>0.46444999999999992</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -11231,7 +11285,7 @@
         <v>-0.11599999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -11284,7 +11338,7 @@
         <v>-1.0411750000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -11337,7 +11391,7 @@
         <v>-0.58367500000000028</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -11390,7 +11444,7 @@
         <v>0.6473000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -11443,7 +11497,7 @@
         <v>-0.37184999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -11496,7 +11550,7 @@
         <v>0.38307500000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -11549,7 +11603,7 @@
         <v>0.1371</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -11602,7 +11656,7 @@
         <v>7.7249999999999819E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -11655,7 +11709,7 @@
         <v>-0.13392500000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -11708,7 +11762,7 @@
         <v>0.97184999999999988</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -11761,7 +11815,7 @@
         <v>1.3449999999999962E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -11814,7 +11868,7 @@
         <v>-0.28392499999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -11867,7 +11921,7 @@
         <v>-0.21162500000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -11882,7 +11936,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>22</v>
       </c>
@@ -11899,7 +11953,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
@@ -11940,7 +11994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -11993,7 +12047,7 @@
         <v>0.27962943999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -12046,7 +12100,7 @@
         <v>0.43000806249999951</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -12099,7 +12153,7 @@
         <v>0.18005170562500006</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -12152,7 +12206,7 @@
         <v>0.21571380249999991</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -12205,7 +12259,7 @@
         <v>1.3455999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -12258,7 +12312,7 @@
         <v>1.0840453806250003</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -12311,7 +12365,7 @@
         <v>0.34067650562500035</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -12364,7 +12418,7 @@
         <v>0.41899729000000013</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -12417,7 +12471,7 @@
         <v>0.13827242249999996</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -12470,7 +12524,7 @@
         <v>0.14674645562500005</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -12523,7 +12577,7 @@
         <v>1.879641E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -12576,7 +12630,7 @@
         <v>5.9675624999999719E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -12629,7 +12683,7 @@
         <v>1.7935905625000005E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -12682,7 +12736,7 @@
         <v>0.94449242249999976</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -12735,7 +12789,7 @@
         <v>1.8090249999999899E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -12788,7 +12842,7 @@
         <v>8.0613405624999995E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -12841,7 +12895,7 @@
         <v>4.4785140625000004E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -12856,7 +12910,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>0</v>
       </c>
@@ -12875,7 +12929,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -12895,7 +12949,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -12915,7 +12969,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -12935,7 +12989,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -12955,7 +13009,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -12975,7 +13029,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -12995,7 +13049,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -13015,7 +13069,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -13035,7 +13089,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -13055,7 +13109,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -13075,7 +13129,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -13095,7 +13149,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -13115,7 +13169,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -13135,7 +13189,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -13155,7 +13209,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
@@ -13175,7 +13229,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -13195,7 +13249,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
@@ -13234,16 +13288,16 @@
       <selection activeCell="A20" sqref="A20:M77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="13" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1"/>
-    <col min="15" max="17" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="13" width="12.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="17" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13293,7 +13347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -13346,7 +13400,7 @@
         <v>-0.25505</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -13399,7 +13453,7 @@
         <v>0.82830000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -13452,7 +13506,7 @@
         <v>0.19935000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -13505,7 +13559,7 @@
         <v>0.32624999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -13558,7 +13612,7 @@
         <v>-0.89582499999999987</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -13611,7 +13665,7 @@
         <v>0.49157499999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -13664,7 +13718,7 @@
         <v>0.21492500000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -13717,7 +13771,7 @@
         <v>0.65282499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -13770,7 +13824,7 @@
         <v>0.25274999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -13823,7 +13877,7 @@
         <v>0.42685000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -13876,7 +13930,7 @@
         <v>0.41462499999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -13929,7 +13983,7 @@
         <v>1.1647750000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -13982,7 +14036,7 @@
         <v>0.285275</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -14035,7 +14089,7 @@
         <v>-0.19994999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -14088,7 +14142,7 @@
         <v>-0.25984999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -14141,7 +14195,7 @@
         <v>-0.73350000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -14194,12 +14248,12 @@
         <v>0.14092500000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -14240,7 +14294,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -14293,7 +14347,7 @@
         <v>1.6249999999999987E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -14346,7 +14400,7 @@
         <v>0.18649999999999989</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -14399,7 +14453,7 @@
         <v>-1.00505</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -14452,7 +14506,7 @@
         <v>0.56515000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -14505,7 +14559,7 @@
         <v>1.1424999999999907E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -14558,7 +14612,7 @@
         <v>-2.7175000000000005E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -14611,7 +14665,7 @@
         <v>-1.2403250000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -14664,7 +14718,7 @@
         <v>0.25667499999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -14717,7 +14771,7 @@
         <v>0.32615</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -14770,7 +14824,7 @@
         <v>1.08735</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -14823,7 +14877,7 @@
         <v>-0.99972499999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -14876,7 +14930,7 @@
         <v>2.4999999999941735E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -14929,7 +14983,7 @@
         <v>0.23762500000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -14982,7 +15036,7 @@
         <v>-0.34165000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -15035,7 +15089,7 @@
         <v>0.40015000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -15088,7 +15142,7 @@
         <v>-1.3589</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -15141,12 +15195,12 @@
         <v>0.70057499999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
@@ -15187,7 +15241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -15240,7 +15294,7 @@
         <v>2.6406249999999954E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -15293,7 +15347,7 @@
         <v>3.4782249999999959E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -15346,7 +15400,7 @@
         <v>1.0101255025</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -15399,7 +15453,7 @@
         <v>0.31939452250000006</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -15452,7 +15506,7 @@
         <v>1.3053062499999789E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -15505,7 +15559,7 @@
         <v>7.3848062500000023E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -15558,7 +15612,7 @@
         <v>1.5384061056250002</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -15611,7 +15665,7 @@
         <v>6.5882055624999991E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -15664,7 +15718,7 @@
         <v>0.10637382249999999</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -15717,7 +15771,7 @@
         <v>1.1823300225000002</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -15770,7 +15824,7 @@
         <v>0.99945007562499999</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -15823,7 +15877,7 @@
         <v>6.2499999999708679E-10</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -15876,7 +15930,7 @@
         <v>5.6465640625000015E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -15929,7 +15983,7 @@
         <v>0.1167247225</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -15982,7 +16036,7 @@
         <v>0.16012002250000001</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -16035,7 +16089,7 @@
         <v>1.84660921</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -16088,7 +16142,7 @@
         <v>0.49080533062499992</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>0</v>
       </c>
@@ -16096,7 +16150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -16105,7 +16159,7 @@
         <v>0.19853487541666667</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -16114,7 +16168,7 @@
         <v>0.69568472812499993</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -16123,7 +16177,7 @@
         <v>0.42334560708333341</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -16132,7 +16186,7 @@
         <v>0.19601342916666667</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -16141,7 +16195,7 @@
         <v>1.3401803097916669</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -16150,7 +16204,7 @@
         <v>0.21103123541666666</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -16159,7 +16213,7 @@
         <v>2.7909164245833331</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -16168,7 +16222,7 @@
         <v>0.23294396458333333</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -16177,7 +16231,7 @@
         <v>0.34355865729166662</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -16186,7 +16240,7 @@
         <v>1.7075822608333333</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -16195,7 +16249,7 @@
         <v>1.0007356020833331</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -16204,7 +16258,7 @@
         <v>9.0353331250000002E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -16213,7 +16267,7 @@
         <v>0.21907346187500001</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -16222,7 +16276,7 @@
         <v>0.21868704062499997</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
@@ -16231,7 +16285,7 @@
         <v>0.26211273041666666</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -16240,7 +16294,7 @@
         <v>0.654963715625</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
@@ -16268,9 +16322,9 @@
       <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16320,7 +16374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -16373,7 +16427,7 @@
         <v>-0.55580000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -16426,7 +16480,7 @@
         <v>2.5949999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -16479,7 +16533,7 @@
         <v>0.38087500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -16532,7 +16586,7 @@
         <v>0.449625</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -16585,7 +16639,7 @@
         <v>-0.52742500000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -16638,7 +16692,7 @@
         <v>1.9011750000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -16691,7 +16745,7 @@
         <v>-0.13974999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -16744,7 +16798,7 @@
         <v>0.39415</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -16797,7 +16851,7 @@
         <v>0.53827500000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -16850,7 +16904,7 @@
         <v>0.26129999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -16903,7 +16957,7 @@
         <v>5.3474999999999981E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -16956,7 +17010,7 @@
         <v>0.18459999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -17009,7 +17063,7 @@
         <v>-3.8300000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -17062,7 +17116,7 @@
         <v>-0.2611</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -17115,7 +17169,7 @@
         <v>0.33665</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -17168,7 +17222,7 @@
         <v>-0.39510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -17221,7 +17275,7 @@
         <v>-0.93640000000000012</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
@@ -17238,7 +17292,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -17279,7 +17333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -17332,7 +17386,7 @@
         <v>1.8900000000000028E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -17385,7 +17439,7 @@
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -17438,7 +17492,7 @@
         <v>0.23002499999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -17491,7 +17545,7 @@
         <v>0.55877500000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -17544,7 +17598,7 @@
         <v>-0.59397499999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -17597,7 +17651,7 @@
         <v>0.14052499999999979</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -17650,7 +17704,7 @@
         <v>-1.1688499999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -17703,7 +17757,7 @@
         <v>0.19545000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -17756,7 +17810,7 @@
         <v>0.30972499999999992</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -17809,7 +17863,7 @@
         <v>-0.57279999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -17862,7 +17916,7 @@
         <v>0.49712499999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -17915,7 +17969,7 @@
         <v>6.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -17968,7 +18022,7 @@
         <v>0.2802</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
@@ -18021,7 +18075,7 @@
         <v>-2.250000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -18074,7 +18128,7 @@
         <v>0.35904999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>16</v>
       </c>
@@ -18127,7 +18181,7 @@
         <v>-0.66300000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
@@ -18180,7 +18234,7 @@
         <v>0.11180000000000012</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -18195,7 +18249,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>22</v>
       </c>
@@ -18212,7 +18266,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>0</v>
       </c>
@@ -18253,7 +18307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
@@ -18306,7 +18360,7 @@
         <v>3.5721000000000103E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -18359,7 +18413,7 @@
         <v>6.4000000000000116E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -18412,7 +18466,7 @@
         <v>5.2911500624999989E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -18465,7 +18519,7 @@
         <v>0.31222950062500004</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -18518,7 +18572,7 @@
         <v>0.3528063006249999</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -18571,7 +18625,7 @@
         <v>1.9747275624999942E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -18624,7 +18678,7 @@
         <v>1.3662103225</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -18677,7 +18731,7 @@
         <v>3.8200702500000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -18730,7 +18784,7 @@
         <v>9.5929575624999944E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
@@ -18783,7 +18837,7 @@
         <v>0.32809983999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
@@ -18836,7 +18890,7 @@
         <v>0.24713326562499999</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -18889,7 +18943,7 @@
         <v>4.6240000000000005E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -18942,7 +18996,7 @@
         <v>7.8512040000000005E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -18995,7 +19049,7 @@
         <v>5.0625000000000095E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
@@ -19048,7 +19102,7 @@
         <v>0.12891690249999999</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -19101,7 +19155,7 @@
         <v>0.43956900000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -19154,7 +19208,7 @@
         <v>1.2499240000000028E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -19169,7 +19223,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>0</v>
       </c>
@@ -19188,7 +19242,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -19208,7 +19262,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -19228,7 +19282,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -19248,7 +19302,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -19268,7 +19322,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -19288,7 +19342,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -19308,7 +19362,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -19328,7 +19382,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>8</v>
       </c>
@@ -19348,7 +19402,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -19368,7 +19422,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>10</v>
       </c>
@@ -19388,7 +19442,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>11</v>
       </c>
@@ -19408,7 +19462,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>12</v>
       </c>
@@ -19428,7 +19482,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -19448,7 +19502,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>14</v>
       </c>
@@ -19468,7 +19522,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>15</v>
       </c>
@@ -19488,7 +19542,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -19508,7 +19562,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>17</v>
       </c>
@@ -19544,20 +19598,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1">
+    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -19580,7 +19634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>wt_log2_expression!A2</f>
         <v>ACE2</v>
@@ -19610,7 +19664,7 @@
         <v>0.57472522145833338</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>wt_log2_expression!A3</f>
         <v>CIN5</v>
@@ -19640,7 +19694,7 @@
         <v>0.48247417291666667</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>wt_log2_expression!A4</f>
         <v>GCR2</v>
@@ -19670,7 +19724,7 @@
         <v>0.19402333687499998</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>wt_log2_expression!A5</f>
         <v>GLN3</v>
@@ -19700,7 +19754,7 @@
         <v>0.10966087708333333</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>wt_log2_expression!A6</f>
         <v>HAP4</v>
@@ -19730,7 +19784,7 @@
         <v>0.32559700395833335</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>wt_log2_expression!A7</f>
         <v>HMO1</v>
@@ -19760,7 +19814,7 @@
         <v>0.34911424645833339</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>wt_log2_expression!A8</f>
         <v>MCM1</v>
@@ -19790,7 +19844,7 @@
         <v>2.9496325566666672</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="str">
         <f>wt_log2_expression!A9</f>
         <v>MGA2</v>
@@ -19820,7 +19874,7 @@
         <v>0.17247934875000004</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f>wt_log2_expression!A10</f>
         <v>MSN2</v>
@@ -19850,7 +19904,7 @@
         <v>0.21889643625000002</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="str">
         <f>wt_log2_expression!A11</f>
         <v>RDS3</v>
@@ -19880,7 +19934,7 @@
         <v>0.72750882812499995</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="str">
         <f>wt_log2_expression!A12</f>
         <v>SFP1</v>
@@ -19910,7 +19964,7 @@
         <v>9.8930486458333342E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="str">
         <f>wt_log2_expression!A13</f>
         <v>STB5</v>
@@ -19940,7 +19994,7 @@
         <v>1.0762695866666672</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="str">
         <f>wt_log2_expression!A14</f>
         <v>SWI4</v>
@@ -19970,7 +20024,7 @@
         <v>0.22875378645833333</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>wt_log2_expression!A15</f>
         <v>SWI5</v>
@@ -20000,7 +20054,7 @@
         <v>0.21345559395833333</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="str">
         <f>wt_log2_expression!A16</f>
         <v>YHP1</v>
@@ -20030,7 +20084,7 @@
         <v>0.28979024416666671</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="str">
         <f>wt_log2_expression!A17</f>
         <v>YOX1</v>
@@ -20060,7 +20114,7 @@
         <v>0.40824414062499997</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="str">
         <f>wt_log2_expression!A18</f>
         <v>ZAP1</v>
@@ -20098,4 +20152,964 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.41132053804356628</v>
+      </c>
+      <c r="C2">
+        <v>9.9284721405990373E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.2619486029363343</v>
+      </c>
+      <c r="E2">
+        <v>0.19779867831026118</v>
+      </c>
+      <c r="F2">
+        <v>0.19984614447224061</v>
+      </c>
+      <c r="G2">
+        <v>0.85025295103404552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.8457717017809111</v>
+      </c>
+      <c r="C3">
+        <v>0.13893933249999998</v>
+      </c>
+      <c r="D3">
+        <v>0.87871387280248658</v>
+      </c>
+      <c r="E3">
+        <v>0.91900017623751074</v>
+      </c>
+      <c r="F3">
+        <v>0.75940422151390863</v>
+      </c>
+      <c r="G3">
+        <v>0.65460830570541384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.50199230391861893</v>
+      </c>
+      <c r="C4">
+        <v>0.88926975774252559</v>
+      </c>
+      <c r="D4">
+        <v>0.77275247183611784</v>
+      </c>
+      <c r="E4">
+        <v>0.85838719380383954</v>
+      </c>
+      <c r="F4">
+        <v>0.49704517134465159</v>
+      </c>
+      <c r="G4">
+        <v>0.23285276173347527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.47732518832404336</v>
+      </c>
+      <c r="C5">
+        <v>0.19870095172126886</v>
+      </c>
+      <c r="D5">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="E5">
+        <v>0.19236268762667449</v>
+      </c>
+      <c r="F5">
+        <v>0.24977944216038125</v>
+      </c>
+      <c r="G5">
+        <v>0.16225306603977055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2.1018842845295542</v>
+      </c>
+      <c r="C6">
+        <v>1.1836478268914881</v>
+      </c>
+      <c r="D6">
+        <v>1.4256366875503936</v>
+      </c>
+      <c r="E6">
+        <v>0.53320838166666673</v>
+      </c>
+      <c r="F6">
+        <v>1.4852984945440573</v>
+      </c>
+      <c r="G6">
+        <v>0.59853128817667078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.64028441694524996</v>
+      </c>
+      <c r="C7">
+        <v>0.62578220655472683</v>
+      </c>
+      <c r="D7">
+        <v>0.30812227276811904</v>
+      </c>
+      <c r="E7">
+        <v>2.7954444458991419</v>
+      </c>
+      <c r="F7">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="G7">
+        <v>0.58433262428359356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.2323373752737017</v>
+      </c>
+      <c r="C8">
+        <v>0.81762008540604558</v>
+      </c>
+      <c r="D8">
+        <v>4.1287603388694327</v>
+      </c>
+      <c r="E8">
+        <v>1.2418420920999906</v>
+      </c>
+      <c r="F8">
+        <v>3.1260771141213604</v>
+      </c>
+      <c r="G8">
+        <v>3.7399982447008031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.53245401146128346</v>
+      </c>
+      <c r="C9">
+        <v>0.12982857988106086</v>
+      </c>
+      <c r="D9">
+        <v>0.13221434919038458</v>
+      </c>
+      <c r="E9">
+        <v>0.18630144542857432</v>
+      </c>
+      <c r="F9">
+        <v>0.29820197776439517</v>
+      </c>
+      <c r="G9">
+        <v>0.38364827962872261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.54158899734977939</v>
+      </c>
+      <c r="C10">
+        <v>0.33817055647844851</v>
+      </c>
+      <c r="D10">
+        <v>0.8649810184966803</v>
+      </c>
+      <c r="E10">
+        <v>0.24723496526941161</v>
+      </c>
+      <c r="F10">
+        <v>0.4773029433799057</v>
+      </c>
+      <c r="G10">
+        <v>0.29295729995713288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.23177770455562985</v>
+      </c>
+      <c r="C11">
+        <v>0.48154031805116232</v>
+      </c>
+      <c r="D11">
+        <v>1.0724827153689713</v>
+      </c>
+      <c r="E11">
+        <v>0.2158779307076891</v>
+      </c>
+      <c r="F11">
+        <v>1.7901499609746623</v>
+      </c>
+      <c r="G11">
+        <v>0.9149595286652582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.99404133416154872</v>
+      </c>
+      <c r="C12">
+        <v>0.26012740101445381</v>
+      </c>
+      <c r="D12">
+        <v>0.91654221013322434</v>
+      </c>
+      <c r="E12">
+        <v>0.21914808577188735</v>
+      </c>
+      <c r="F12">
+        <v>1.0808772863018186</v>
+      </c>
+      <c r="G12">
+        <v>0.33189741998921413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.8539462642690896</v>
+      </c>
+      <c r="C13">
+        <v>0.8734142909805277</v>
+      </c>
+      <c r="D13">
+        <v>0.35395976430218301</v>
+      </c>
+      <c r="E13">
+        <v>0.15193010519538988</v>
+      </c>
+      <c r="F13">
+        <v>0.52946349361263434</v>
+      </c>
+      <c r="G13">
+        <v>1.3333387126022043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.28229359442415519</v>
+      </c>
+      <c r="C14">
+        <v>0.66197031113511351</v>
+      </c>
+      <c r="D14">
+        <v>0.44495797017011524</v>
+      </c>
+      <c r="E14">
+        <v>0.15765206242970806</v>
+      </c>
+      <c r="F14">
+        <v>0.24822844558249244</v>
+      </c>
+      <c r="G14">
+        <v>0.25717366884534321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.4519913215182379</v>
+      </c>
+      <c r="C15">
+        <v>0.22708064469214639</v>
+      </c>
+      <c r="D15">
+        <v>0.27429543036790333</v>
+      </c>
+      <c r="E15">
+        <v>0.57707488481026159</v>
+      </c>
+      <c r="F15">
+        <v>0.2338186095291199</v>
+      </c>
+      <c r="G15">
+        <v>0.2862801488236193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.7234444149822612</v>
+      </c>
+      <c r="C16">
+        <v>0.66204186846875512</v>
+      </c>
+      <c r="D16">
+        <v>0.95057238880382278</v>
+      </c>
+      <c r="E16">
+        <v>0.29567517588140135</v>
+      </c>
+      <c r="F16">
+        <v>0.3018367246505993</v>
+      </c>
+      <c r="G16">
+        <v>0.48090840878809166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.40613682712082783</v>
+      </c>
+      <c r="C17">
+        <v>0.74131633984855527</v>
+      </c>
+      <c r="D17">
+        <v>1.4912439251444656</v>
+      </c>
+      <c r="E17">
+        <v>0.71056733300302366</v>
+      </c>
+      <c r="F17">
+        <v>0.66444649440327463</v>
+      </c>
+      <c r="G17">
+        <v>0.49581653855309976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2.0597816921090812</v>
+      </c>
+      <c r="C18">
+        <v>0.66328228491250585</v>
+      </c>
+      <c r="D18">
+        <v>1.3009665475202725</v>
+      </c>
+      <c r="E18">
+        <v>0.78647083283807617</v>
+      </c>
+      <c r="F18">
+        <v>0.4781565708559013</v>
+      </c>
+      <c r="G18">
+        <v>3.1590337508333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>MSE_GRNmap!B2/calculated_minMSE!B2</f>
+        <v>1.0073329014127661</v>
+      </c>
+      <c r="C2">
+        <f>MSE_GRNmap!C2/calculated_minMSE!C2</f>
+        <v>1.1789942925652426</v>
+      </c>
+      <c r="D2">
+        <f>MSE_GRNmap!D2/calculated_minMSE!D2</f>
+        <v>1.4060568408095933</v>
+      </c>
+      <c r="E2">
+        <f>MSE_GRNmap!E2/calculated_minMSE!E2</f>
+        <v>1.9889889417334414</v>
+      </c>
+      <c r="F2">
+        <f>MSE_GRNmap!F2/calculated_minMSE!F2</f>
+        <v>1.0066047290322266</v>
+      </c>
+      <c r="G2">
+        <f>MSE_GRNmap!G2/calculated_minMSE!G2</f>
+        <v>1.479407757461167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>MSE_GRNmap!B3/calculated_minMSE!B3</f>
+        <v>1.4874008491195108</v>
+      </c>
+      <c r="C3">
+        <f>MSE_GRNmap!C3/calculated_minMSE!C3</f>
+        <v>1.6354125387747849</v>
+      </c>
+      <c r="D3">
+        <f>MSE_GRNmap!D3/calculated_minMSE!D3</f>
+        <v>1.1971703428534475</v>
+      </c>
+      <c r="E3">
+        <f>MSE_GRNmap!E3/calculated_minMSE!E3</f>
+        <v>1.144950652657112</v>
+      </c>
+      <c r="F3">
+        <f>MSE_GRNmap!F3/calculated_minMSE!F3</f>
+        <v>1.0915924855223496</v>
+      </c>
+      <c r="G3">
+        <f>MSE_GRNmap!G3/calculated_minMSE!G3</f>
+        <v>1.3567737766109986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>MSE_GRNmap!B4/calculated_minMSE!B4</f>
+        <v>1.8175790933327505</v>
+      </c>
+      <c r="C4">
+        <f>MSE_GRNmap!C4/calculated_minMSE!C4</f>
+        <v>1.8156878635168294</v>
+      </c>
+      <c r="D4">
+        <f>MSE_GRNmap!D4/calculated_minMSE!D4</f>
+        <v>1.0330134314820114</v>
+      </c>
+      <c r="E4">
+        <f>MSE_GRNmap!E4/calculated_minMSE!E4</f>
+        <v>1.969938742171786</v>
+      </c>
+      <c r="F4">
+        <f>MSE_GRNmap!F4/calculated_minMSE!F4</f>
+        <v>1.1740884115204975</v>
+      </c>
+      <c r="G4">
+        <f>MSE_GRNmap!G4/calculated_minMSE!G4</f>
+        <v>1.2001276005447286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>MSE_GRNmap!B5/calculated_minMSE!B5</f>
+        <v>1.1767241216272357</v>
+      </c>
+      <c r="C5">
+        <f>MSE_GRNmap!C5/calculated_minMSE!C5</f>
+        <v>1.2004941273675782</v>
+      </c>
+      <c r="D5">
+        <f>MSE_GRNmap!D5/calculated_minMSE!D5</f>
+        <v>1.154253906357058</v>
+      </c>
+      <c r="E5">
+        <f>MSE_GRNmap!E5/calculated_minMSE!E5</f>
+        <v>1.4976999501173289</v>
+      </c>
+      <c r="F5">
+        <f>MSE_GRNmap!F5/calculated_minMSE!F5</f>
+        <v>1.2742975990078635</v>
+      </c>
+      <c r="G5">
+        <f>MSE_GRNmap!G5/calculated_minMSE!G5</f>
+        <v>1.4795893517837855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>MSE_GRNmap!B6/calculated_minMSE!B6</f>
+        <v>1.1679891005455119</v>
+      </c>
+      <c r="C6">
+        <f>MSE_GRNmap!C6/calculated_minMSE!C6</f>
+        <v>1.081317452705167</v>
+      </c>
+      <c r="D6">
+        <f>MSE_GRNmap!D6/calculated_minMSE!D6</f>
+        <v>2.1766852688939466</v>
+      </c>
+      <c r="E6">
+        <f>MSE_GRNmap!E6/calculated_minMSE!E6</f>
+        <v>1.8593311270967727</v>
+      </c>
+      <c r="F6">
+        <f>MSE_GRNmap!F6/calculated_minMSE!F6</f>
+        <v>1.108282582345169</v>
+      </c>
+      <c r="G6">
+        <f>MSE_GRNmap!G6/calculated_minMSE!G6</f>
+        <v>1.8382579719722016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>MSE_GRNmap!B7/calculated_minMSE!B7</f>
+        <v>1.0905524690888817</v>
+      </c>
+      <c r="C7">
+        <f>MSE_GRNmap!C7/calculated_minMSE!C7</f>
+        <v>1.139848215763978</v>
+      </c>
+      <c r="D7">
+        <f>MSE_GRNmap!D7/calculated_minMSE!D7</f>
+        <v>1.0432739402099882</v>
+      </c>
+      <c r="E7">
+        <f>MSE_GRNmap!E7/calculated_minMSE!E7</f>
+        <v>1.2861918461017869</v>
+      </c>
+      <c r="F7">
+        <f>MSE_GRNmap!F7/calculated_minMSE!F7</f>
+        <v>2.8128329699376158</v>
+      </c>
+      <c r="G7">
+        <f>MSE_GRNmap!G7/calculated_minMSE!G7</f>
+        <v>1.6737576028806758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>MSE_GRNmap!B8/calculated_minMSE!B8</f>
+        <v>1.18855673789243</v>
+      </c>
+      <c r="C8">
+        <f>MSE_GRNmap!C8/calculated_minMSE!C8</f>
+        <v>1.2663184799779139</v>
+      </c>
+      <c r="D8">
+        <f>MSE_GRNmap!D8/calculated_minMSE!D8</f>
+        <v>1.5197348716608077</v>
+      </c>
+      <c r="E8">
+        <f>MSE_GRNmap!E8/calculated_minMSE!E8</f>
+        <v>1.6242499532688659</v>
+      </c>
+      <c r="F8">
+        <f>MSE_GRNmap!F8/calculated_minMSE!F8</f>
+        <v>1.1200898337857124</v>
+      </c>
+      <c r="G8">
+        <f>MSE_GRNmap!G8/calculated_minMSE!G8</f>
+        <v>1.2679539477714863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>MSE_GRNmap!B9/calculated_minMSE!B9</f>
+        <v>2.0271374014150307</v>
+      </c>
+      <c r="C9">
+        <f>MSE_GRNmap!C9/calculated_minMSE!C9</f>
+        <v>1.1419399564221666</v>
+      </c>
+      <c r="D9">
+        <f>MSE_GRNmap!D9/calculated_minMSE!D9</f>
+        <v>1.1224177805656852</v>
+      </c>
+      <c r="E9">
+        <f>MSE_GRNmap!E9/calculated_minMSE!E9</f>
+        <v>1.1617423845273993</v>
+      </c>
+      <c r="F9">
+        <f>MSE_GRNmap!F9/calculated_minMSE!F9</f>
+        <v>1.2801446832837622</v>
+      </c>
+      <c r="G9">
+        <f>MSE_GRNmap!G9/calculated_minMSE!G9</f>
+        <v>2.2243142869515418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>MSE_GRNmap!B10/calculated_minMSE!B10</f>
+        <v>1.2761113026341853</v>
+      </c>
+      <c r="C10">
+        <f>MSE_GRNmap!C10/calculated_minMSE!C10</f>
+        <v>1.4931940356593474</v>
+      </c>
+      <c r="D10">
+        <f>MSE_GRNmap!D10/calculated_minMSE!D10</f>
+        <v>1.3784444666955742</v>
+      </c>
+      <c r="E10">
+        <f>MSE_GRNmap!E10/calculated_minMSE!E10</f>
+        <v>1.8077467491923722</v>
+      </c>
+      <c r="F10">
+        <f>MSE_GRNmap!F10/calculated_minMSE!F10</f>
+        <v>1.3892909791375039</v>
+      </c>
+      <c r="G10">
+        <f>MSE_GRNmap!G10/calculated_minMSE!G10</f>
+        <v>1.3383374575479543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>MSE_GRNmap!B11/calculated_minMSE!B11</f>
+        <v>1.1298705741720421</v>
+      </c>
+      <c r="C11">
+        <f>MSE_GRNmap!C11/calculated_minMSE!C11</f>
+        <v>1.7084124813982187</v>
+      </c>
+      <c r="D11">
+        <f>MSE_GRNmap!D11/calculated_minMSE!D11</f>
+        <v>1.2455668152058779</v>
+      </c>
+      <c r="E11">
+        <f>MSE_GRNmap!E11/calculated_minMSE!E11</f>
+        <v>1.4010882432633622</v>
+      </c>
+      <c r="F11">
+        <f>MSE_GRNmap!F11/calculated_minMSE!F11</f>
+        <v>1.0483535710314971</v>
+      </c>
+      <c r="G11">
+        <f>MSE_GRNmap!G11/calculated_minMSE!G11</f>
+        <v>1.2576610664964338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>MSE_GRNmap!B12/calculated_minMSE!B12</f>
+        <v>1.0121241143256432</v>
+      </c>
+      <c r="C12">
+        <f>MSE_GRNmap!C12/calculated_minMSE!C12</f>
+        <v>1.0702909134080321</v>
+      </c>
+      <c r="D12">
+        <f>MSE_GRNmap!D12/calculated_minMSE!D12</f>
+        <v>1.2100091457784539</v>
+      </c>
+      <c r="E12">
+        <f>MSE_GRNmap!E12/calculated_minMSE!E12</f>
+        <v>1.7201215250914903</v>
+      </c>
+      <c r="F12">
+        <f>MSE_GRNmap!F12/calculated_minMSE!F12</f>
+        <v>1.0800827751622371</v>
+      </c>
+      <c r="G12">
+        <f>MSE_GRNmap!G12/calculated_minMSE!G12</f>
+        <v>3.3548548265655169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>MSE_GRNmap!B13/calculated_minMSE!B13</f>
+        <v>1.6411814069675708</v>
+      </c>
+      <c r="C13">
+        <f>MSE_GRNmap!C13/calculated_minMSE!C13</f>
+        <v>1.5123053333129817</v>
+      </c>
+      <c r="D13">
+        <f>MSE_GRNmap!D13/calculated_minMSE!D13</f>
+        <v>2.8719036773865914</v>
+      </c>
+      <c r="E13">
+        <f>MSE_GRNmap!E13/calculated_minMSE!E13</f>
+        <v>1.3871603400276589</v>
+      </c>
+      <c r="F13">
+        <f>MSE_GRNmap!F13/calculated_minMSE!F13</f>
+        <v>5.8599222218786133</v>
+      </c>
+      <c r="G13">
+        <f>MSE_GRNmap!G13/calculated_minMSE!G13</f>
+        <v>1.2388519838525869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f>MSE_GRNmap!B14/calculated_minMSE!B14</f>
+        <v>1.1719267234214206</v>
+      </c>
+      <c r="C14">
+        <f>MSE_GRNmap!C14/calculated_minMSE!C14</f>
+        <v>1.4407307664884728</v>
+      </c>
+      <c r="D14">
+        <f>MSE_GRNmap!D14/calculated_minMSE!D14</f>
+        <v>1.1661109753955843</v>
+      </c>
+      <c r="E14">
+        <f>MSE_GRNmap!E14/calculated_minMSE!E14</f>
+        <v>1.5592977453952366</v>
+      </c>
+      <c r="F14">
+        <f>MSE_GRNmap!F14/calculated_minMSE!F14</f>
+        <v>1.1330831377655766</v>
+      </c>
+      <c r="G14">
+        <f>MSE_GRNmap!G14/calculated_minMSE!G14</f>
+        <v>1.1242378665158683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f>MSE_GRNmap!B15/calculated_minMSE!B15</f>
+        <v>1.292783412061745</v>
+      </c>
+      <c r="C15">
+        <f>MSE_GRNmap!C15/calculated_minMSE!C15</f>
+        <v>1.0716805667057916</v>
+      </c>
+      <c r="D15">
+        <f>MSE_GRNmap!D15/calculated_minMSE!D15</f>
+        <v>1.0263807115531789</v>
+      </c>
+      <c r="E15">
+        <f>MSE_GRNmap!E15/calculated_minMSE!E15</f>
+        <v>1.2855595160471702</v>
+      </c>
+      <c r="F15">
+        <f>MSE_GRNmap!F15/calculated_minMSE!F15</f>
+        <v>1.0691928010954579</v>
+      </c>
+      <c r="G15">
+        <f>MSE_GRNmap!G15/calculated_minMSE!G15</f>
+        <v>1.3411695777787926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>MSE_GRNmap!B16/calculated_minMSE!B16</f>
+        <v>1.1224548798837999</v>
+      </c>
+      <c r="C16">
+        <f>MSE_GRNmap!C16/calculated_minMSE!C16</f>
+        <v>1.1649563329625066</v>
+      </c>
+      <c r="D16">
+        <f>MSE_GRNmap!D16/calculated_minMSE!D16</f>
+        <v>2.8926777857813764</v>
+      </c>
+      <c r="E16">
+        <f>MSE_GRNmap!E16/calculated_minMSE!E16</f>
+        <v>2.7533909389387454</v>
+      </c>
+      <c r="F16">
+        <f>MSE_GRNmap!F16/calculated_minMSE!F16</f>
+        <v>1.1515530900417752</v>
+      </c>
+      <c r="G16">
+        <f>MSE_GRNmap!G16/calculated_minMSE!G16</f>
+        <v>1.6595051713042051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f>MSE_GRNmap!B17/calculated_minMSE!B17</f>
+        <v>1.1425813880797659</v>
+      </c>
+      <c r="C17">
+        <f>MSE_GRNmap!C17/calculated_minMSE!C17</f>
+        <v>1.150732024903371</v>
+      </c>
+      <c r="D17">
+        <f>MSE_GRNmap!D17/calculated_minMSE!D17</f>
+        <v>16.832720771229198</v>
+      </c>
+      <c r="E17">
+        <f>MSE_GRNmap!E17/calculated_minMSE!E17</f>
+        <v>2.1270433354018534</v>
+      </c>
+      <c r="F17">
+        <f>MSE_GRNmap!F17/calculated_minMSE!F17</f>
+        <v>1.0144783268936137</v>
+      </c>
+      <c r="G17">
+        <f>MSE_GRNmap!G17/calculated_minMSE!G17</f>
+        <v>1.2145098709660134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f>MSE_GRNmap!B18/calculated_minMSE!B18</f>
+        <v>3.5036591845155973</v>
+      </c>
+      <c r="C18">
+        <f>MSE_GRNmap!C18/calculated_minMSE!C18</f>
+        <v>1.2717460364096989</v>
+      </c>
+      <c r="D18">
+        <f>MSE_GRNmap!D18/calculated_minMSE!D18</f>
+        <v>3.010019431839591</v>
+      </c>
+      <c r="E18">
+        <f>MSE_GRNmap!E18/calculated_minMSE!E18</f>
+        <v>1.5313235569458492</v>
+      </c>
+      <c r="F18">
+        <f>MSE_GRNmap!F18/calculated_minMSE!F18</f>
+        <v>1.9976761137301251</v>
+      </c>
+      <c r="G18">
+        <f>MSE_GRNmap!G18/calculated_minMSE!G18</f>
+        <v>1.7474996069294411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>